--- a/Excel2Json/Test/affix.xlsx
+++ b/Excel2Json/Test/affix.xlsx
@@ -58,19 +58,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>目标特效绑点</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>target_sfx_position</t>
@@ -290,9 +283,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>target_sfx</t>
   </si>
   <si>
@@ -308,6 +298,42 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[10]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +872,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -861,34 +887,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="264" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -899,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -911,16 +937,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -928,63 +954,63 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -998,11 +1024,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -1022,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="16">
         <v>8</v>
@@ -1054,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="20">
         <v>20</v>
